--- a/biology/Microbiologie/Stentor_coeruleus/Stentor_coeruleus.xlsx
+++ b/biology/Microbiologie/Stentor_coeruleus/Stentor_coeruleus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stentor coeruleus est une espèce de ciliés de la famille des Stentoridae ; sa grande taille et sa couleur sont caractéristiques.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de cet eucaryote unicellulaire varie de 500 à 2 000 µm. Sa couleur caractéristique bleu-vert est due à la présence d'un pigment, la stentorine.
 Il se fixe par le pied et se nourrit de particules en suspension qui vont de la bactérie à des organismes plus grands (algues unicellulaires ou autres ciliés). Les particules sont dirigées par les cils qui entourent sa « bouche » ou cytostome.
@@ -544,7 +558,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se reproduit par scissiparité ou par conjugaison.
 </t>
@@ -575,7 +591,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Stentor coeruleus vit dans les eaux douces stagnantes. Il apparait souvent à l'automne quand les feuilles d'arbres pourrissent dans les flaques d'eau ou les mares.
 </t>
